--- a/cbreader2X/Nav/book_nav.xlsx
+++ b/cbreader2X/Nav/book_nav.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{805F5851-906A-424F-BF8E-C75F52BD93DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,59 +21,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="217">
-  <si>
-    <t>阿含部</t>
-  </si>
-  <si>
-    <t>本緣部</t>
-  </si>
-  <si>
-    <t>般若部</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="237">
   <si>
     <t>華嚴部</t>
   </si>
   <si>
-    <t>寶積部</t>
-  </si>
-  <si>
-    <t>大集部</t>
-  </si>
-  <si>
-    <t>經集部</t>
-  </si>
-  <si>
-    <t>密教部</t>
-  </si>
-  <si>
-    <t>律部</t>
-  </si>
-  <si>
-    <t>釋經論部</t>
-  </si>
-  <si>
-    <t>瑜伽部</t>
-  </si>
-  <si>
     <t>論集部</t>
   </si>
   <si>
-    <t>經疏部</t>
-  </si>
-  <si>
-    <t>論疏部</t>
-  </si>
-  <si>
-    <t>史傳部</t>
-  </si>
-  <si>
-    <t>事彙部</t>
-  </si>
-  <si>
-    <t>目錄部</t>
-  </si>
-  <si>
     <t>卍新纂續藏經</t>
   </si>
   <si>
@@ -205,10 +161,6 @@
     <t>法華部</t>
   </si>
   <si>
-    <t>法華部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T0262,T0277</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>涅槃部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T0310,T0373</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,18 +197,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毘曇部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T1536,T1563</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中觀部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T1564,T1578</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,18 +217,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>律疏部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T1804,T1815</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>諸宗部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T1816,T1850</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外教部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T2121,T2136</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,14 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>古逸部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疑似部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T2732,T2864</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -707,18 +627,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T 大正新脩大藏經 (T01-55 &amp; T85)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y 印順法師佛學著作集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ZS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,14 +652,193 @@
   </si>
   <si>
     <t>ZS 正史佛教資料類編</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙雲集</t>
+  </si>
+  <si>
+    <t>上篇</t>
+  </si>
+  <si>
+    <t>Y0001,Y0007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中篇</t>
+  </si>
+  <si>
+    <t>Y0008,Y0012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y0040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y0013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下篇</t>
+  </si>
+  <si>
+    <t>Y0014,Y0023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y0039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y0024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>華雨集</t>
+  </si>
+  <si>
+    <t>Y0025,Y0029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專書</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y0030,Y0038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y0041,Y0042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T 大正新脩大藏經 (T01-55 , T85)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N0001,N0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N0004,N0023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N0024,N0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿含部 (T01-02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本緣部 (T03-04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>般若部 (T05-08)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法華部 (T09)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>華嚴部 (T09-10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寶積部 (T11-12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅槃部 (T12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大集部 (T13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經集部 (T14-17)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密教部 (T18-21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>律部 (T22-24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>釋經論部 (T25-26)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毘曇部 (T26-29)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中觀部 (T30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑜伽部 (T30-31)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>論集部 (T32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經疏部 (T33-39)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>律疏部 (T40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>論疏部 (T40-44)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諸宗部 (T44-48)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史傳部 (T49-52)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事彙部 (T53-54)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外教部 (T54)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目錄部 (T55)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古逸部 (T85)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似部 (T85)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,6 +868,18 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -798,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -809,6 +912,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,1734 +1199,1809 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F224"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="B213" sqref="B213"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="19.8"/>
   <cols>
     <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="D28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="D30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="D32" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D6" s="1" t="s">
+    <row r="33" spans="3:4">
+      <c r="C33" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="D34" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C7" s="1" t="s">
+    <row r="35" spans="3:4">
+      <c r="C35" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="D36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="D38" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="D40" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="D42" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="D44" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="D46" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="D48" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="C49" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="D50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="C51" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="D52" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="C53" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="D54" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D10" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="1" t="s">
+    <row r="56" spans="1:6">
+      <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D12" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D16" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D20" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D24" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D26" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C27" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D28" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C29" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D30" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D32" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C33" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D34" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D36" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C37" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D38" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D40" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C41" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D42" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C43" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D44" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C45" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D46" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C47" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D48" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C49" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D50" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C51" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D52" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C53" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D54" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B56" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" customFormat="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" customFormat="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" customFormat="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" customFormat="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" customFormat="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" customFormat="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" customFormat="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" customFormat="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" customFormat="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" customFormat="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" customFormat="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" customFormat="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" customFormat="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" customFormat="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" customFormat="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" customFormat="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" customFormat="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" customFormat="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" customFormat="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" customFormat="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" customFormat="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" customFormat="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" customFormat="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" customFormat="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" customFormat="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" customFormat="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" customFormat="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" customFormat="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" customFormat="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" customFormat="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" customFormat="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" customFormat="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" customFormat="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" customFormat="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" customFormat="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" customFormat="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" customFormat="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" customFormat="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" customFormat="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" customFormat="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" customFormat="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" customFormat="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" customFormat="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" customFormat="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" customFormat="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" customFormat="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" customFormat="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" customFormat="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" customFormat="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" customFormat="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" customFormat="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" customFormat="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" customFormat="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" customFormat="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" customFormat="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" customFormat="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" customFormat="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" customFormat="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" customFormat="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" customFormat="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" customFormat="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" customFormat="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" customFormat="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" customFormat="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" customFormat="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" customFormat="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" customFormat="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" customFormat="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" customFormat="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" customFormat="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" customFormat="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" customFormat="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="2" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" customFormat="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" customFormat="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" customFormat="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" customFormat="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" customFormat="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" customFormat="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" customFormat="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" customFormat="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" customFormat="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" customFormat="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" customFormat="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" customFormat="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" customFormat="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" customFormat="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" customFormat="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" customFormat="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" customFormat="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" customFormat="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" customFormat="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" customFormat="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" customFormat="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="2" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" customFormat="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" customFormat="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="2" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" customFormat="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" customFormat="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" customFormat="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" customFormat="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" customFormat="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" customFormat="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" customFormat="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" customFormat="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" customFormat="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" customFormat="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" customFormat="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" customFormat="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" customFormat="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" customFormat="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" customFormat="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" customFormat="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" customFormat="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" customFormat="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" customFormat="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" customFormat="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" customFormat="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="1:6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" customFormat="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6">
       <c r="A174" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="B175" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="C176" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3">
       <c r="B177" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3">
       <c r="C178" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3">
       <c r="B179" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3">
       <c r="C180" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3">
       <c r="B181" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3">
       <c r="C182" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3">
       <c r="B183" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3">
       <c r="C184" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3">
       <c r="B185" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3">
       <c r="C186" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3">
       <c r="B187" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3">
       <c r="C188" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3">
       <c r="B189" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3">
       <c r="C190" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3">
       <c r="B191" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3">
       <c r="C192" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="B193" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="C194" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="B195" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="C196" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="B198" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="C199" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="B201" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="3" customFormat="1">
       <c r="C202" s="4" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" s="3" customFormat="1">
       <c r="C203" s="5"/>
       <c r="D203" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="3" customFormat="1">
       <c r="C204" s="5" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" s="3" customFormat="1">
       <c r="C205" s="5"/>
       <c r="D205" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" s="3" customFormat="1">
       <c r="C206" s="5" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" s="3" customFormat="1">
       <c r="C207" s="5"/>
       <c r="D207" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" s="3" customFormat="1">
       <c r="C208" s="5" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" s="3" customFormat="1">
       <c r="C209" s="5"/>
       <c r="D209" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="B211" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="C212" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="B213" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="C214" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="B215" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="C216" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="B217" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="C218" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="B219" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="C220" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="B221" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="C222" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="B223" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C224" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="C224" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="225" spans="3:5">
+      <c r="D225" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="226" spans="3:5">
+      <c r="E226" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="227" spans="3:5">
+      <c r="D227" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="228" spans="3:5">
+      <c r="E228" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="229" spans="3:5">
+      <c r="E229" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="230" spans="3:5">
+      <c r="E230" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="231" spans="3:5">
+      <c r="D231" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="232" spans="3:5">
+      <c r="E232" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="233" spans="3:5">
+      <c r="E233" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="234" spans="3:5">
+      <c r="E234" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="235" spans="3:5">
+      <c r="C235" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="236" spans="3:5">
+      <c r="D236" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="237" spans="3:5">
+      <c r="C237" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="238" spans="3:5">
+      <c r="D238" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="239" spans="3:5">
+      <c r="D239" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2828,14 +3012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.625" style="3" customWidth="1"/>
@@ -2844,44 +3028,44 @@
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="B2" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="B6" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="B8" s="3" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/cbreader2X/Nav/book_nav.xlsx
+++ b/cbreader2X/Nav/book_nav.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E195E3B-E081-4D5D-88D7-064121D0D549}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340385E8-504F-4CD7-9EB8-541FD9FD7476}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4790" uniqueCount="4654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4792" uniqueCount="4656">
   <si>
     <t>卍新纂續藏經</t>
   </si>
@@ -15843,6 +15843,14 @@
   </si>
   <si>
     <t>help/other/Y/index/Y0037-P2C_index.htm 梵巴藏歐文索引</t>
+  </si>
+  <si>
+    <t>LC 呂澂佛學著作集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC0007 經論講要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -16212,10 +16220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4782"/>
+  <dimension ref="A1:G4784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4750" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4774" sqref="D4774"/>
+    <sheetView tabSelected="1" topLeftCell="A4762" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4784" sqref="C4784"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
@@ -40133,74 +40141,84 @@
         <v>4649</v>
       </c>
     </row>
-    <row r="4769" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4769" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4769" s="2" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="4770" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4770" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4770" s="2" t="s">
         <v>4650</v>
       </c>
     </row>
-    <row r="4771" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4771" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4771" s="2" t="s">
         <v>4651</v>
       </c>
     </row>
-    <row r="4772" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4772" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4772" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="4773" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4773" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4773" s="2" t="s">
         <v>4652</v>
       </c>
     </row>
-    <row r="4774" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4774" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4774" s="2" t="s">
         <v>4653</v>
       </c>
     </row>
-    <row r="4775" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4775" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4775" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="4776" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4776" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4776" s="3" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="4777" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4777" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4777" s="3" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="4778" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4778" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="C4778" s="2" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="4779" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4779" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4779" s="2" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="4780" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4780" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4780" s="2" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="4781" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4781" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4781" s="2" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="4782" spans="3:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4782" spans="2:4" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4782" s="2" t="s">
         <v>1061</v>
+      </c>
+    </row>
+    <row r="4783" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4783" s="1" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4784" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C4784" s="1" t="s">
+        <v>4655</v>
       </c>
     </row>
   </sheetData>

--- a/cbreader2X/Nav/book_nav.xlsx
+++ b/cbreader2X/Nav/book_nav.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340385E8-504F-4CD7-9EB8-541FD9FD7476}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A81888-9997-4B79-A343-ACC13F566CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15849,7 +15849,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LC0007 經論講要</t>
+    <t>LC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16222,8 +16222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4762" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4784" sqref="C4784"/>
+    <sheetView tabSelected="1" topLeftCell="A4767" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4787" sqref="D4787"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
